--- a/biology/Mycologie/Liste_des_espèces_du_genre_Boletus/Liste_des_espèces_du_genre_Boletus.xlsx
+++ b/biology/Mycologie/Liste_des_espèces_du_genre_Boletus/Liste_des_espèces_du_genre_Boletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article contient une liste des espèces de champignon du genre Boletus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Boletus abieticola Thiers 1975
 Boletus abruptibulbus Roody, Both &amp; B. Ortiz 2009
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +576,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boletus badius (Fr.) Fr. 1828
 Boletus barrowsii Thiers &amp; A.H. Sm. 1976
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,7 +622,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boletus calocystides Corner 1972
 Boletus calopus Pers. 1801
@@ -642,7 +660,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -660,7 +678,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boletus destitutus Corner 1972
 Boletus dictyotus (Boedijn) Corner 1972
@@ -677,7 +697,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -695,7 +715,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boletus eastwoodiae (Murrill) Sacc. &amp; Trotter 1912
 Boletus eberwhitei A.H. Sm. &amp; Thiers 1971
@@ -710,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -728,7 +750,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Boletus fagicola A.H. Sm. &amp; Thiers 1971
 Boletus fairchildianus (Singer) Singer 1978
@@ -756,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -774,7 +798,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Boletus gabretae Pilát 1968
 Boletus generosus Hid. Takah. 1988
@@ -794,7 +820,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -812,7 +838,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Boletus haematinus Halling 1976
 Boletus harrisonii A.H. Sm. &amp; Thiers 1971
@@ -839,7 +867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -857,7 +885,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Boletus illudens Peck 1897
 Boletus immutatus (Pegler &amp; A.E. Hills) A.E. Hills &amp; Watling 2004
@@ -875,7 +905,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -893,7 +923,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Boletus jocosus Corner 1972
 Boletus junquilleus (Quél.) Boud. 1906</t>
@@ -906,7 +938,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -924,7 +956,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Boletus kluzakii Šutara &amp; Spinar 2006
 Boletus kumaeus R. Heim 1963</t>
@@ -937,7 +971,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -955,7 +989,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Boletus latisporus Corner 1972
 Boletus legaliae Pilát 1968
@@ -980,7 +1016,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +1034,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Boletus maculatus Corner 1972
 Boletus mahoganicoloroides B. Ortiz, Both &amp; T.J. Baroni 2007
@@ -1027,7 +1065,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1045,7 +1083,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Boletus nancyae A.H. Sm. &amp; Thiers 1971
 Boletus neoregius Halling &amp; G.M. Muell. 1999
@@ -1065,7 +1105,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1083,7 +1123,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Boletus obscuratus (Singer) J. Blum 1969
 Boletus obscureorubeus T.H. Li &amp; Watling 1999
@@ -1103,7 +1145,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1121,7 +1163,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Boletus pallidissimus Watling 2003
 Boletus pallidoroseus Both 1998
@@ -1173,7 +1217,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1191,7 +1235,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Boletus queletii Schulzer 1885
 Boletus quercophilus Halling &amp; G.M. Muell. 1999
@@ -1205,7 +1251,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1223,7 +1269,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Boletus radicans Pers. 1801
 Boletus rainisii Bessette &amp; O.K. Mill. 2000
@@ -1270,7 +1318,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1288,7 +1336,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Boletus sartor Corner 1972
 Boletus satanas Lenz 1831
@@ -1330,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1348,7 +1398,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Boletus tomentoides Hlavácek 1991
 Boletus tomentososquamulosus Lj.N. Vassiljeva 1959
@@ -1365,7 +1417,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1383,7 +1435,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Boletus variipes Peck 1888
 Boletus venturii Bon 1986
@@ -1401,7 +1455,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1473,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Boletus xanthocyaneus (Ramain) Romagn. 1976</t>
         </is>
@@ -1431,7 +1487,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Boletus</t>
+          <t>Liste_des_espèces_du_genre_Boletus</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1449,7 +1505,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Boletus zelleri</t>
         </is>
